--- a/r5-core-main/StructureDefinition-at-core-organization.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:06:09+00:00</t>
+    <t>2024-05-03T09:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-organization.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:16:39+00:00</t>
+    <t>2024-05-03T09:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-organization.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:40:54+00:00</t>
+    <t>2024-05-03T10:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-organization.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T10:09:53+00:00</t>
+    <t>2024-05-03T10:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-organization.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T10:46:23+00:00</t>
+    <t>2024-05-06T14:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-organization.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T14:44:22+00:00</t>
+    <t>2024-05-06T14:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-organization.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T10:39:13+00:00</t>
+    <t>2024-10-16T09:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
